--- a/products/27.xlsx
+++ b/products/27.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Работа в команде от 1000р клад</t>
   </si>
@@ -24,17 +24,14 @@
     <t>Tv5 C4</t>
   </si>
   <si>
-    <t>Tv20 C4</t>
-  </si>
-  <si>
     <t>Tv10 C4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,10 +155,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,7 +189,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -369,19 +364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,36 +387,25 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="C2">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="C3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3200</v>
-      </c>
-      <c r="C4">
         <v>438</v>
       </c>
     </row>
@@ -432,12 +416,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -445,12 +429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
